--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_55.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_55.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kyosuke Sakamoto</t>
+          <t>Yuki Suzuki</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Kyosuke Sakamoto</t>
+          <t>Yuki Suzuki</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kyosuke Sakamoto</t>
+          <t>Yuki Suzuki</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Kyosuke Sakamoto</t>
+          <t>Yuki Suzuki</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kyosuke Sakamoto</t>
+          <t>Yuki Suzuki</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Kyosuke Sakamoto</t>
+          <t>Yuki Suzuki</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Kyosuke Sakamoto</t>
+          <t>Yuki Suzuki</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Kyosuke Sakamoto</t>
+          <t>Yuki Suzuki</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kyosuke Sakamoto</t>
+          <t>Yuki Suzuki</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Kyosuke Sakamoto</t>
+          <t>Yuki Suzuki</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Kyosuke Sakamoto</t>
+          <t>Yuki Suzuki</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Kyosuke Sakamoto</t>
+          <t>Yuki Suzuki</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Kyosuke Sakamoto</t>
+          <t>Yuki Suzuki</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Kyosuke Sakamoto</t>
+          <t>Yuki Suzuki</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kyosuke Sakamoto</t>
+          <t>Yuki Suzuki</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
